--- a/Personality Prediction - Analyze/Dataset/Dataset/dataset_applymagicsauce.xlsx
+++ b/Personality Prediction - Analyze/Dataset/Dataset/dataset_applymagicsauce.xlsx
@@ -1501,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="92.25" x14ac:dyDescent="0.25"/>
@@ -1774,7 +1774,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>1476126192451280</v>
       </c>
